--- a/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.24.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_1_Common_alpha=0.24.xlsx
@@ -127,118 +127,118 @@
     <t>בהחלט, בהחלט</t>
   </si>
   <si>
+    <t xml:space="preserve">אבל לא לפני שאנחנו נעשה את כל הבדיקות וניתן לו את הטיפול... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אני מבין שהוא הרגיש מאד רע בימים האחרונים. </t>
+  </si>
+  <si>
+    <t>אנחנו, הוא עבר סדרת בדיקות.</t>
+  </si>
+  <si>
+    <t>ילדים בן חמש זה ... תרבית של חיידקים בגיל הזה בסדר.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא מה הוא ד... א אא הקיא קצת והיה לו חולשות וטיפה... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">בסדר זה קורה. זה קרה מיליון פעם בעבר וזה יקרה מיליון פעם בעתיד. </t>
+  </si>
+  <si>
+    <t>אתה יודע מה יש ליואב באמת?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>מה יש ליואב?</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יש ליואב אמא היסטרית זה מה שיש לו. שמכריחה אותי לרוץ איתו, </t>
+  </si>
+  <si>
+    <t>crit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קח למיון כאשר הוא חטף איזה משהו ויראלי או... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תראה אנחנו כבר הוא עבר סדרת בדיקות, אנחנו בדקנו אותו </t>
+  </si>
+  <si>
+    <t>ונמצא בבדיקה הראשונה שיש לו רמת סוכר בדם מאד גבוהה. הרבה מעבר ל... לרמה הרגילה.</t>
+  </si>
+  <si>
+    <t>רמת סוכר מאד גבוהה?</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>נכון. הגלוקוז שלו בדם היה מאד גבוה ה...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא היה לפני יומיים באיזשהו מסיבה שהיה שמה מעמיסים אותם בסוכריות קילוגרם. </t>
+  </si>
+  <si>
+    <t>אני מתאר לעצמי שזה שזה קשור לזה וקשור...</t>
+  </si>
+  <si>
+    <t>לא בהכרח קשור לאיזשהו ספציפי אבל הבדיקות ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לאחר מכן לאחר מכן המשכנו עם סדרת בדיקות ומצאנו שבעצם הבן שלך הובחן בסכרת נעורים. סכרת סוג אחד. </t>
+  </si>
+  <si>
+    <t>זו מחלה ש... זו מחלה ש... שהרבה אנשים שחולים בה..</t>
+  </si>
+  <si>
+    <t>r/o</t>
+  </si>
+  <si>
+    <t>מה שמך?</t>
+  </si>
+  <si>
+    <t>דוק. אני דוקטור דוק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוקיי. דוקטור דוק </t>
+  </si>
+  <si>
+    <t xml:space="preserve">סליחה אבל הבחנתם את מה? מי? </t>
+  </si>
+  <si>
+    <t>?bid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">את יואב שיש לו סכרת נעורים ממה מ... </t>
+  </si>
+  <si>
+    <t>מבדיקה אחת?</t>
+  </si>
+  <si>
+    <t>?med</t>
+  </si>
+  <si>
+    <t>לא. מסדרה של בדיקות. הגלוק...</t>
+  </si>
+  <si>
+    <t>... מכמה בדיקות.</t>
+  </si>
+  <si>
+    <t>נכון.</t>
+  </si>
+  <si>
+    <t>אז תעשו את הבדיקה הזאת עוד פעם.</t>
+  </si>
+  <si>
+    <t>תראה,</t>
+  </si>
+  <si>
     <t>trans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבל לא לפני שאנחנו נעשה את כל הבדיקות וניתן לו את הטיפול... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אני מבין שהוא הרגיש מאד רע בימים האחרונים. </t>
-  </si>
-  <si>
-    <t>אנחנו, הוא עבר סדרת בדיקות.</t>
-  </si>
-  <si>
-    <t>ילדים בן חמש זה ... תרבית של חיידקים בגיל הזה בסדר.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא מה הוא ד... א אא הקיא קצת והיה לו חולשות וטיפה... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">בסדר זה קורה. זה קרה מיליון פעם בעבר וזה יקרה מיליון פעם בעתיד. </t>
-  </si>
-  <si>
-    <t>אתה יודע מה יש ליואב באמת?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>מה יש ליואב?</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יש ליואב אמא היסטרית זה מה שיש לו. שמכריחה אותי לרוץ איתו, </t>
-  </si>
-  <si>
-    <t>crit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קח למיון כאשר הוא חטף איזה משהו ויראלי או... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">תראה אנחנו כבר הוא עבר סדרת בדיקות, אנחנו בדקנו אותו </t>
-  </si>
-  <si>
-    <t>ונמצא בבדיקה הראשונה שיש לו רמת סוכר בדם מאד גבוהה. הרבה מעבר ל... לרמה הרגילה.</t>
-  </si>
-  <si>
-    <t>רמת סוכר מאד גבוהה?</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t>נכון. הגלוקוז שלו בדם היה מאד גבוה ה...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא היה לפני יומיים באיזשהו מסיבה שהיה שמה מעמיסים אותם בסוכריות קילוגרם. </t>
-  </si>
-  <si>
-    <t>אני מתאר לעצמי שזה שזה קשור לזה וקשור...</t>
-  </si>
-  <si>
-    <t>לא בהכרח קשור לאיזשהו ספציפי אבל הבדיקות ...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לאחר מכן לאחר מכן המשכנו עם סדרת בדיקות ומצאנו שבעצם הבן שלך הובחן בסכרת נעורים. סכרת סוג אחד. </t>
-  </si>
-  <si>
-    <t>זו מחלה ש... זו מחלה ש... שהרבה אנשים שחולים בה..</t>
-  </si>
-  <si>
-    <t>r/o</t>
-  </si>
-  <si>
-    <t>מה שמך?</t>
-  </si>
-  <si>
-    <t>דוק. אני דוקטור דוק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוקיי. דוקטור דוק </t>
-  </si>
-  <si>
-    <t xml:space="preserve">סליחה אבל הבחנתם את מה? מי? </t>
-  </si>
-  <si>
-    <t>?bid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">את יואב שיש לו סכרת נעורים ממה מ... </t>
-  </si>
-  <si>
-    <t>מבדיקה אחת?</t>
-  </si>
-  <si>
-    <t>?med</t>
-  </si>
-  <si>
-    <t>לא. מסדרה של בדיקות. הגלוק...</t>
-  </si>
-  <si>
-    <t>... מכמה בדיקות.</t>
-  </si>
-  <si>
-    <t>נכון.</t>
-  </si>
-  <si>
-    <t>אז תעשו את הבדיקה הזאת עוד פעם.</t>
-  </si>
-  <si>
-    <t>תראה,</t>
   </si>
   <si>
     <t>לא לא לא לא לא.</t>
@@ -822,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -892,7 +892,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
         <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
-      </c>
-      <c r="B36" t="s">
-        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1292,7 +1292,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
         <v>60</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" t="s">
-        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
         <v>65</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
         <v>68</v>
       </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>29</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
         <v>74</v>
       </c>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -1620,7 +1620,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1673,10 +1673,10 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
@@ -1701,7 +1701,7 @@
         <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1743,7 +1743,7 @@
         <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1774,7 +1774,7 @@
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -1827,7 +1827,7 @@
         <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1855,7 +1855,7 @@
         <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -1886,7 +1886,7 @@
         <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -1911,10 +1911,10 @@
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -1953,10 +1953,10 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -1970,7 +1970,7 @@
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -1998,7 +1998,7 @@
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -2009,7 +2009,7 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2026,7 +2026,7 @@
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -2065,7 +2065,7 @@
         <v>112</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2096,7 +2096,7 @@
         <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -2149,7 +2149,7 @@
         <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2177,7 +2177,7 @@
         <v>88</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -2219,7 +2219,7 @@
         <v>123</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2261,7 +2261,7 @@
         <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
         <v>21</v>
@@ -2289,7 +2289,7 @@
         <v>129</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -2320,7 +2320,7 @@
         <v>132</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -2331,7 +2331,7 @@
         <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -2373,7 +2373,7 @@
         <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2471,10 +2471,10 @@
         <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
